--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Fgf1-Cspg4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Fgf1-Cspg4.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.384145666666667</v>
+        <v>0.8775636666666666</v>
       </c>
       <c r="H2">
-        <v>4.152437</v>
+        <v>2.632691</v>
       </c>
       <c r="I2">
-        <v>0.1014617184198512</v>
+        <v>0.1887436506618166</v>
       </c>
       <c r="J2">
-        <v>0.1334061399754118</v>
+        <v>0.2083714858314108</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.296849666666667</v>
+        <v>1.143899333333333</v>
       </c>
       <c r="N2">
-        <v>9.890549</v>
+        <v>3.431698</v>
       </c>
       <c r="O2">
-        <v>0.06532810080989171</v>
+        <v>0.0786649926114418</v>
       </c>
       <c r="P2">
-        <v>0.08920500662862835</v>
+        <v>0.09278552072412605</v>
       </c>
       <c r="Q2">
-        <v>4.563320179768112</v>
+        <v>1.003844493257556</v>
       </c>
       <c r="R2">
-        <v>41.069881617913</v>
+        <v>9.034600439318</v>
       </c>
       <c r="S2">
-        <v>0.006628301369276885</v>
+        <v>0.01484751788476836</v>
       </c>
       <c r="T2">
-        <v>0.01190049560080633</v>
+        <v>0.0193338568169273</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.384145666666667</v>
+        <v>0.8775636666666666</v>
       </c>
       <c r="H3">
-        <v>4.152437</v>
+        <v>2.632691</v>
       </c>
       <c r="I3">
-        <v>0.1014617184198512</v>
+        <v>0.1887436506618166</v>
       </c>
       <c r="J3">
-        <v>0.1334061399754118</v>
+        <v>0.2083714858314108</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>17.809439</v>
       </c>
       <c r="O3">
-        <v>0.1176331896601106</v>
+        <v>0.4082467010060103</v>
       </c>
       <c r="P3">
-        <v>0.1606271930958688</v>
+        <v>0.4815278242489749</v>
       </c>
       <c r="Q3">
-        <v>8.216952605871445</v>
+        <v>5.209638863372112</v>
       </c>
       <c r="R3">
-        <v>73.952573452843</v>
+        <v>46.886749770349</v>
       </c>
       <c r="S3">
-        <v>0.01193526556612309</v>
+        <v>0.07705397271851749</v>
       </c>
       <c r="T3">
-        <v>0.02142865380600498</v>
+        <v>0.1003366682079253</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,46 +664,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.384145666666667</v>
+        <v>0.8775636666666666</v>
       </c>
       <c r="H4">
-        <v>4.152437</v>
+        <v>2.632691</v>
       </c>
       <c r="I4">
-        <v>0.1014617184198512</v>
+        <v>0.1887436506618166</v>
       </c>
       <c r="J4">
-        <v>0.1334061399754118</v>
+        <v>0.2083714858314108</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.3593903333333333</v>
+        <v>0.02736833333333333</v>
       </c>
       <c r="N4">
-        <v>1.078171</v>
+        <v>0.082105</v>
       </c>
       <c r="O4">
-        <v>0.007121431153953309</v>
+        <v>0.001882097206211744</v>
       </c>
       <c r="P4">
-        <v>0.009724258097482239</v>
+        <v>0.002219937529192361</v>
       </c>
       <c r="Q4">
-        <v>0.4974485725252222</v>
+        <v>0.02401745495055555</v>
       </c>
       <c r="R4">
-        <v>4.477037152727</v>
+        <v>0.216157094555</v>
       </c>
       <c r="S4">
-        <v>0.0007225526424887666</v>
+        <v>0.0003552338976008103</v>
       </c>
       <c r="T4">
-        <v>0.001297275736909747</v>
+        <v>0.0004625716814107231</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.384145666666667</v>
+        <v>0.8775636666666666</v>
       </c>
       <c r="H5">
-        <v>4.152437</v>
+        <v>2.632691</v>
       </c>
       <c r="I5">
-        <v>0.1014617184198512</v>
+        <v>0.1887436506618166</v>
       </c>
       <c r="J5">
-        <v>0.1334061399754118</v>
+        <v>0.2083714858314108</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>40.52370850000001</v>
+        <v>6.638933</v>
       </c>
       <c r="N5">
-        <v>81.04741700000001</v>
+        <v>13.277866</v>
       </c>
       <c r="O5">
-        <v>0.8029898787454566</v>
+        <v>0.4565538244270245</v>
       </c>
       <c r="P5">
-        <v>0.7309842325960073</v>
+        <v>0.3590041171790666</v>
       </c>
       <c r="Q5">
-        <v>56.09071551753818</v>
+        <v>5.826086386234333</v>
       </c>
       <c r="R5">
-        <v>336.544293105229</v>
+        <v>34.95651831740599</v>
       </c>
       <c r="S5">
-        <v>0.08147273297126197</v>
+        <v>0.08617163554597065</v>
       </c>
       <c r="T5">
-        <v>0.09751778485352192</v>
+        <v>0.07480622131619599</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.384145666666667</v>
+        <v>0.8775636666666666</v>
       </c>
       <c r="H6">
-        <v>4.152437</v>
+        <v>2.632691</v>
       </c>
       <c r="I6">
-        <v>0.1014617184198512</v>
+        <v>0.1887436506618166</v>
       </c>
       <c r="J6">
-        <v>0.1334061399754118</v>
+        <v>0.2083714858314108</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.3495983333333333</v>
+        <v>0.7947223333333334</v>
       </c>
       <c r="N6">
-        <v>1.048795</v>
+        <v>2.384167</v>
       </c>
       <c r="O6">
-        <v>0.006927399630587782</v>
+        <v>0.05465238474931167</v>
       </c>
       <c r="P6">
-        <v>0.00945930958201332</v>
+        <v>0.06446260031864033</v>
       </c>
       <c r="Q6">
-        <v>0.4838950181572222</v>
+        <v>0.6974194448218889</v>
       </c>
       <c r="R6">
-        <v>4.355055163415</v>
+        <v>6.276775003397</v>
       </c>
       <c r="S6">
-        <v>0.0007028658707004787</v>
+        <v>0.01031529061495928</v>
       </c>
       <c r="T6">
-        <v>0.001261929978168823</v>
+        <v>0.01343216780895146</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,16 +850,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.458038666666666</v>
+        <v>2.458038666666667</v>
       </c>
       <c r="H7">
-        <v>7.374115999999999</v>
+        <v>7.374116000000001</v>
       </c>
       <c r="I7">
-        <v>0.1801810554109115</v>
+        <v>0.5286672739959656</v>
       </c>
       <c r="J7">
-        <v>0.2369096391566985</v>
+        <v>0.5836444564186148</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.296849666666667</v>
+        <v>1.143899333333333</v>
       </c>
       <c r="N7">
-        <v>9.890549</v>
+        <v>3.431698</v>
       </c>
       <c r="O7">
-        <v>0.06532810080989171</v>
+        <v>0.0786649926114418</v>
       </c>
       <c r="P7">
-        <v>0.08920500662862835</v>
+        <v>0.09278552072412605</v>
       </c>
       <c r="Q7">
-        <v>8.103783958853777</v>
+        <v>2.811748792107556</v>
       </c>
       <c r="R7">
-        <v>72.934055629684</v>
+        <v>25.30573912896801</v>
       </c>
       <c r="S7">
-        <v>0.01177088615191671</v>
+        <v>0.04158760720280371</v>
       </c>
       <c r="T7">
-        <v>0.02113352593135924</v>
+        <v>0.05415375480655067</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,16 +912,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.458038666666666</v>
+        <v>2.458038666666667</v>
       </c>
       <c r="H8">
-        <v>7.374115999999999</v>
+        <v>7.374116000000001</v>
       </c>
       <c r="I8">
-        <v>0.1801810554109115</v>
+        <v>0.5286672739959656</v>
       </c>
       <c r="J8">
-        <v>0.2369096391566985</v>
+        <v>0.5836444564186148</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>17.809439</v>
       </c>
       <c r="O8">
-        <v>0.1176331896601106</v>
+        <v>0.4082467010060103</v>
       </c>
       <c r="P8">
-        <v>0.1606271930958688</v>
+        <v>0.4815278242489749</v>
       </c>
       <c r="Q8">
         <v>14.59209656454711</v>
@@ -948,10 +948,10 @@
         <v>131.328869080924</v>
       </c>
       <c r="S8">
-        <v>0.02119527226431065</v>
+        <v>0.2158266705386935</v>
       </c>
       <c r="T8">
-        <v>0.03805413035509561</v>
+        <v>0.2810410452342312</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,46 +974,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2.458038666666666</v>
+        <v>2.458038666666667</v>
       </c>
       <c r="H9">
-        <v>7.374115999999999</v>
+        <v>7.374116000000001</v>
       </c>
       <c r="I9">
-        <v>0.1801810554109115</v>
+        <v>0.5286672739959656</v>
       </c>
       <c r="J9">
-        <v>0.2369096391566985</v>
+        <v>0.5836444564186148</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.3593903333333333</v>
+        <v>0.02736833333333333</v>
       </c>
       <c r="N9">
-        <v>1.078171</v>
+        <v>0.082105</v>
       </c>
       <c r="O9">
-        <v>0.007121431153953309</v>
+        <v>0.001882097206211744</v>
       </c>
       <c r="P9">
-        <v>0.009724258097482239</v>
+        <v>0.002219937529192361</v>
       </c>
       <c r="Q9">
-        <v>0.8833953357595554</v>
+        <v>0.06727242157555556</v>
       </c>
       <c r="R9">
-        <v>7.950558021835999</v>
+        <v>0.6054517941800001</v>
       </c>
       <c r="S9">
-        <v>0.001283146981355453</v>
+        <v>0.0009950031994033852</v>
       </c>
       <c r="T9">
-        <v>0.00230377047694112</v>
+        <v>0.001295654232508759</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.458038666666666</v>
+        <v>2.458038666666667</v>
       </c>
       <c r="H10">
-        <v>7.374115999999999</v>
+        <v>7.374116000000001</v>
       </c>
       <c r="I10">
-        <v>0.1801810554109115</v>
+        <v>0.5286672739959656</v>
       </c>
       <c r="J10">
-        <v>0.2369096391566985</v>
+        <v>0.5836444564186148</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>40.52370850000001</v>
+        <v>6.638933</v>
       </c>
       <c r="N10">
-        <v>81.04741700000001</v>
+        <v>13.277866</v>
       </c>
       <c r="O10">
-        <v>0.8029898787454566</v>
+        <v>0.4565538244270245</v>
       </c>
       <c r="P10">
-        <v>0.7309842325960073</v>
+        <v>0.3590041171790666</v>
       </c>
       <c r="Q10">
-        <v>99.60884240972867</v>
+        <v>16.31875401940933</v>
       </c>
       <c r="R10">
-        <v>597.653054458372</v>
+        <v>97.91252411645601</v>
       </c>
       <c r="S10">
-        <v>0.1446835638366362</v>
+        <v>0.2413650657922677</v>
       </c>
       <c r="T10">
-        <v>0.1731772107735562</v>
+        <v>0.209530762823021</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,16 +1098,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.458038666666666</v>
+        <v>2.458038666666667</v>
       </c>
       <c r="H11">
-        <v>7.374115999999999</v>
+        <v>7.374116000000001</v>
       </c>
       <c r="I11">
-        <v>0.1801810554109115</v>
+        <v>0.5286672739959656</v>
       </c>
       <c r="J11">
-        <v>0.2369096391566985</v>
+        <v>0.5836444564186148</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.3495983333333333</v>
+        <v>0.7947223333333334</v>
       </c>
       <c r="N11">
-        <v>1.048795</v>
+        <v>2.384167</v>
       </c>
       <c r="O11">
-        <v>0.006927399630587782</v>
+        <v>0.05465238474931167</v>
       </c>
       <c r="P11">
-        <v>0.00945930958201332</v>
+        <v>0.06446260031864033</v>
       </c>
       <c r="Q11">
-        <v>0.8593262211355553</v>
+        <v>1.953458224596889</v>
       </c>
       <c r="R11">
-        <v>7.733935990219998</v>
+        <v>17.581124021372</v>
       </c>
       <c r="S11">
-        <v>0.001248186176692465</v>
+        <v>0.02889292726279729</v>
       </c>
       <c r="T11">
-        <v>0.002241001619746276</v>
+        <v>0.03762323932230326</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>9.799863999999999</v>
+        <v>1.313898</v>
       </c>
       <c r="H12">
-        <v>19.599728</v>
+        <v>2.627796</v>
       </c>
       <c r="I12">
-        <v>0.7183572261692374</v>
+        <v>0.2825890753422177</v>
       </c>
       <c r="J12">
-        <v>0.6296842208678898</v>
+        <v>0.2079840577499744</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.296849666666667</v>
+        <v>1.143899333333333</v>
       </c>
       <c r="N12">
-        <v>9.890549</v>
+        <v>3.431698</v>
       </c>
       <c r="O12">
-        <v>0.06532810080989171</v>
+        <v>0.0786649926114418</v>
       </c>
       <c r="P12">
-        <v>0.08920500662862835</v>
+        <v>0.09278552072412605</v>
       </c>
       <c r="Q12">
-        <v>32.30867836177867</v>
+        <v>1.502967046268</v>
       </c>
       <c r="R12">
-        <v>193.852070170672</v>
+        <v>9.017802277608</v>
       </c>
       <c r="S12">
-        <v>0.04692891328869812</v>
+        <v>0.02222986752386973</v>
       </c>
       <c r="T12">
-        <v>0.05617098509646278</v>
+        <v>0.01929790910064808</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>9.799863999999999</v>
+        <v>1.313898</v>
       </c>
       <c r="H13">
-        <v>19.599728</v>
+        <v>2.627796</v>
       </c>
       <c r="I13">
-        <v>0.7183572261692374</v>
+        <v>0.2825890753422177</v>
       </c>
       <c r="J13">
-        <v>0.6296842208678898</v>
+        <v>0.2079840577499744</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>17.809439</v>
       </c>
       <c r="O13">
-        <v>0.1176331896601106</v>
+        <v>0.4082467010060103</v>
       </c>
       <c r="P13">
-        <v>0.1606271930958688</v>
+        <v>0.4815278242489749</v>
       </c>
       <c r="Q13">
-        <v>58.17669337209867</v>
+        <v>7.799928761074001</v>
       </c>
       <c r="R13">
-        <v>349.060160232592</v>
+        <v>46.79957256644401</v>
       </c>
       <c r="S13">
-        <v>0.08450265182967685</v>
+        <v>0.1153660577487993</v>
       </c>
       <c r="T13">
-        <v>0.1011444089347683</v>
+        <v>0.1001501108068183</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,46 +1284,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>9.799863999999999</v>
+        <v>1.313898</v>
       </c>
       <c r="H14">
-        <v>19.599728</v>
+        <v>2.627796</v>
       </c>
       <c r="I14">
-        <v>0.7183572261692374</v>
+        <v>0.2825890753422177</v>
       </c>
       <c r="J14">
-        <v>0.6296842208678898</v>
+        <v>0.2079840577499744</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L14">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M14">
-        <v>0.3593903333333333</v>
+        <v>0.02736833333333333</v>
       </c>
       <c r="N14">
-        <v>1.078171</v>
+        <v>0.082105</v>
       </c>
       <c r="O14">
-        <v>0.007121431153953309</v>
+        <v>0.001882097206211744</v>
       </c>
       <c r="P14">
-        <v>0.009724258097482239</v>
+        <v>0.002219937529192361</v>
       </c>
       <c r="Q14">
-        <v>3.521976389581333</v>
+        <v>0.03595919843</v>
       </c>
       <c r="R14">
-        <v>21.131858337488</v>
+        <v>0.21575519058</v>
       </c>
       <c r="S14">
-        <v>0.00511573153010909</v>
+        <v>0.0005318601092075478</v>
       </c>
       <c r="T14">
-        <v>0.006123211883631372</v>
+        <v>0.0004617116152728796</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>9.799863999999999</v>
+        <v>1.313898</v>
       </c>
       <c r="H15">
-        <v>19.599728</v>
+        <v>2.627796</v>
       </c>
       <c r="I15">
-        <v>0.7183572261692374</v>
+        <v>0.2825890753422177</v>
       </c>
       <c r="J15">
-        <v>0.6296842208678898</v>
+        <v>0.2079840577499744</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>40.52370850000001</v>
+        <v>6.638933</v>
       </c>
       <c r="N15">
-        <v>81.04741700000001</v>
+        <v>13.277866</v>
       </c>
       <c r="O15">
-        <v>0.8029898787454566</v>
+        <v>0.4565538244270245</v>
       </c>
       <c r="P15">
-        <v>0.7309842325960073</v>
+        <v>0.3590041171790666</v>
       </c>
       <c r="Q15">
-        <v>397.126832075644</v>
+        <v>8.722880790833999</v>
       </c>
       <c r="R15">
-        <v>1588.507328302576</v>
+        <v>34.891523163336</v>
       </c>
       <c r="S15">
-        <v>0.5768335819375584</v>
+        <v>0.1290171230887861</v>
       </c>
       <c r="T15">
-        <v>0.4602892369689292</v>
+        <v>0.07466713303984956</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>9.799863999999999</v>
+        <v>1.313898</v>
       </c>
       <c r="H16">
-        <v>19.599728</v>
+        <v>2.627796</v>
       </c>
       <c r="I16">
-        <v>0.7183572261692374</v>
+        <v>0.2825890753422177</v>
       </c>
       <c r="J16">
-        <v>0.6296842208678898</v>
+        <v>0.2079840577499744</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.3495983333333333</v>
+        <v>0.7947223333333334</v>
       </c>
       <c r="N16">
-        <v>1.048795</v>
+        <v>2.384167</v>
       </c>
       <c r="O16">
-        <v>0.006927399630587782</v>
+        <v>0.05465238474931167</v>
       </c>
       <c r="P16">
-        <v>0.00945930958201332</v>
+        <v>0.06446260031864033</v>
       </c>
       <c r="Q16">
-        <v>3.426016121293333</v>
+        <v>1.044184084322</v>
       </c>
       <c r="R16">
-        <v>20.55609672776</v>
+        <v>6.265104505932</v>
       </c>
       <c r="S16">
-        <v>0.004976347583194839</v>
+        <v>0.01544416687155511</v>
       </c>
       <c r="T16">
-        <v>0.005956377984098222</v>
+        <v>0.01340719318738561</v>
       </c>
     </row>
   </sheetData>
